--- a/DMSNewVSale_2025-12-02_15-50.xlsx
+++ b/DMSNewVSale_2025-12-02_15-50.xlsx
@@ -332,6 +332,12 @@
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -341,9 +347,6 @@
     <t>300.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -539,7 +542,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>14.0000</t>
+    <t>8:0</t>
   </si>
   <si>
     <t>شفاط ثدي SHEKO</t>
@@ -2156,21 +2159,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
@@ -2182,31 +2185,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>83</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2215,14 +2218,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2232,14 +2235,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>11</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2255,7 +2258,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2265,11 +2268,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>11</v>
@@ -2281,14 +2284,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2298,11 +2301,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>11</v>
@@ -2314,14 +2317,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2331,14 +2334,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2347,14 +2350,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2364,14 +2367,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2380,14 +2383,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2397,14 +2400,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2413,7 +2416,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2430,11 +2433,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>11</v>
@@ -2446,14 +2449,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2463,14 +2466,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2479,14 +2482,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2496,14 +2499,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2512,28 +2515,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>11</v>
@@ -2545,7 +2548,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2558,15 +2561,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>11</v>
@@ -2578,14 +2581,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2595,11 +2598,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>11</v>
@@ -2611,14 +2614,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2628,11 +2631,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>11</v>
@@ -2644,31 +2647,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2677,31 +2680,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2710,14 +2713,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2727,11 +2730,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>11</v>
@@ -2743,14 +2746,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2760,11 +2763,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>11</v>
@@ -2776,14 +2779,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2793,14 +2796,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2809,14 +2812,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2826,14 +2829,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2849,7 +2852,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2859,14 +2862,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2875,31 +2878,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2908,14 +2911,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2925,14 +2928,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2941,7 +2944,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2958,14 +2961,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>11</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2974,14 +2977,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2991,11 +2994,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>11</v>
@@ -3007,14 +3010,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3024,11 +3027,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>11</v>
@@ -3040,14 +3043,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3057,11 +3060,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>11</v>
@@ -3073,14 +3076,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3090,51 +3093,84 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>188</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>189</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>73</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>190</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
         <v>45</v>
       </c>
-      <c t="s" r="Q63" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" ht="26.25" customHeight="1">
-      <c r="N64" s="13">
-        <v>3943.9499999999998</v>
-      </c>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>190</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c t="s" r="Q64" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" ht="25.5" customHeight="1">
+      <c r="N65" s="13">
+        <v>3957.9499999999998</v>
+      </c>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
         <v>191</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
         <v>192</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>193</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3428,10 +3464,15 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
